--- a/Data_Time_to_IPO.xlsx
+++ b/Data_Time_to_IPO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antok\OneDrive\Рабочий стол\All Materials HSE\BSc - 4 курс\Investment Portfolio Management\Проект\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E97420D-09A5-41F5-A793-5E6EA926692F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DE49CF-99FB-4299-ACA3-275AAB2FC609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="173">
   <si>
     <t>Company</t>
   </si>
@@ -449,9 +449,6 @@
     <t>Kronos Bio</t>
   </si>
   <si>
-    <t>Amwell</t>
-  </si>
-  <si>
     <t>Sumo Logic</t>
   </si>
   <si>
@@ -500,13 +497,64 @@
     <t>Vroom</t>
   </si>
   <si>
-    <t>Legend Biotech</t>
-  </si>
-  <si>
     <t>One Medical</t>
   </si>
   <si>
     <t>Days from financing to IPO</t>
+  </si>
+  <si>
+    <t>Klaviyo</t>
+  </si>
+  <si>
+    <t>Email automation</t>
+  </si>
+  <si>
+    <t>Oddity</t>
+  </si>
+  <si>
+    <t>Consumer goods</t>
+  </si>
+  <si>
+    <t>Vaxxinity</t>
+  </si>
+  <si>
+    <t>AvidXchange</t>
+  </si>
+  <si>
+    <t>Vicarious Surgical</t>
+  </si>
+  <si>
+    <t>VTEX</t>
+  </si>
+  <si>
+    <t>Outbrain</t>
+  </si>
+  <si>
+    <t>SOPHiA GENETICS</t>
+  </si>
+  <si>
+    <t>Singular Genomics</t>
+  </si>
+  <si>
+    <t>Ascend Wellness</t>
+  </si>
+  <si>
+    <t>Cannabis</t>
+  </si>
+  <si>
+    <t>Poshmark</t>
+  </si>
+  <si>
+    <t>Airbnb</t>
+  </si>
+  <si>
+    <t>Travel and tourism</t>
+  </si>
+  <si>
+    <t>Unity</t>
+  </si>
+  <si>
+    <t>Gaming</t>
   </si>
 </sst>
 </file>
@@ -882,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -898,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -967,1334 +1015,1455 @@
         <v>697</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:3" ht="16">
+      <c r="A8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="7">
         <v>715.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4">
-        <v>523.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16">
       <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>523.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16">
+      <c r="A11" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="7">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C12" s="4">
         <v>778</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7">
         <v>383.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
         <v>779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1474.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24">
-      <c r="A14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4">
-        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C15" s="7">
-        <v>828.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16">
+        <v>1474.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="24">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C16" s="4">
-        <v>837.5</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C17" s="7">
-        <v>944.5</v>
+        <v>828.5</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4">
-        <v>1546.5</v>
+        <v>837.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16">
       <c r="A19" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>1330.5</v>
+        <v>944.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16">
       <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1546.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16">
+      <c r="A21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1330.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16">
+      <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C22" s="4">
         <v>910</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="7">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C24" s="4">
         <v>202.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16">
-      <c r="A22" s="5" t="s">
+    <row r="25" spans="1:3" ht="16">
+      <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C25" s="7">
         <v>1773</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16">
-      <c r="A23" s="2" t="s">
+    <row r="26" spans="1:3" ht="16">
+      <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C26" s="4">
         <v>2287.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16">
-      <c r="A24" s="5" t="s">
+    <row r="27" spans="1:3" ht="16">
+      <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C27" s="7">
         <v>534</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C28" s="4">
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16">
-      <c r="A26" s="5" t="s">
+    <row r="29" spans="1:3" ht="16">
+      <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C29" s="7">
         <v>431</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16">
-      <c r="A27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="7">
-        <v>2021.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16">
-      <c r="A29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="4">
-        <v>939.5</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="4">
-        <v>278</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="7">
-        <v>301.5</v>
+        <v>2021.5</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C32" s="4">
-        <v>1360</v>
+        <v>939.5</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16">
       <c r="A33" s="5" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C33" s="7">
-        <v>443.5</v>
+        <v>464.5</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16">
       <c r="A34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="7">
+        <v>301.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16">
+      <c r="A36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16">
+      <c r="A37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="7">
+        <v>443.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16">
+      <c r="A38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C38" s="4">
         <v>658</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16">
-      <c r="A35" s="2" t="s">
+    <row r="39" spans="1:3" ht="16">
+      <c r="A39" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="7">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16">
+      <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C40" s="4">
         <v>949</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16">
-      <c r="A36" s="5" t="s">
+    <row r="41" spans="1:3" ht="16">
+      <c r="A41" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C41" s="7">
         <v>236</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C42" s="4">
         <v>1556</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="5" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="7">
+      <c r="B43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="7">
         <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16">
-      <c r="A39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="4">
-        <v>179.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="7">
-        <v>3383.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16">
-      <c r="A41" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1061.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="7">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16">
-      <c r="A43" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="4">
-        <v>646.5</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16">
       <c r="A44" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C44" s="4">
-        <v>2262.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16">
+        <v>179.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C45" s="7">
-        <v>247.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>3383.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16">
       <c r="A46" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="C46" s="4">
-        <v>1190</v>
+        <v>1061.5</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C47" s="7">
-        <v>134.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16">
       <c r="A48" s="2" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C48" s="4">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16">
       <c r="A49" s="5" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C49" s="7">
-        <v>632</v>
+        <v>958.5</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16">
       <c r="A50" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C50" s="4">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>646.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16">
       <c r="A51" s="5" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C51" s="7">
-        <v>351</v>
+        <v>612</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16">
       <c r="A52" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C52" s="4">
-        <v>364</v>
+        <v>2262.5</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16">
       <c r="A53" s="5" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C53" s="7">
-        <v>1016.5</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C54" s="4">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="16">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C55" s="7">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="16">
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C56" s="4">
-        <v>236.5</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C57" s="7">
-        <v>1636.5</v>
+        <v>632</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="4">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="16">
-      <c r="A59" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="C59" s="7">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C60" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="24">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16">
       <c r="A61" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C61" s="7">
-        <v>411.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="16">
+        <v>1016.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C62" s="4">
-        <v>750.5</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16">
       <c r="A63" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C63" s="7">
-        <v>720.5</v>
+        <v>788</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C64" s="4">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="16">
+        <v>236.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C65" s="7">
-        <v>802</v>
+        <v>1636.5</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16">
       <c r="A66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" s="4">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16">
+      <c r="A67" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="7">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="24">
+      <c r="A69" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="7">
+        <v>411.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16">
+      <c r="A70" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="4">
+        <v>750.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16">
+      <c r="A71" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="7">
+        <v>720.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16">
+      <c r="A72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="4">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16">
+      <c r="A73" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="7">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16">
+      <c r="A74" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C74" s="4">
         <v>84.5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="24">
-      <c r="A67" s="5" t="s">
+    <row r="75" spans="1:3" ht="24">
+      <c r="A75" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="7">
+      <c r="B75" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="7">
         <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="16">
-      <c r="A68" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68" s="7">
-        <v>4289.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="16">
-      <c r="A69" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C69" s="4">
-        <v>275.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="16">
-      <c r="A70" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C70" s="7">
-        <v>1404.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" s="4">
-        <v>340.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="16">
-      <c r="A72" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="7">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="16">
-      <c r="A73" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="4">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C74" s="4">
-        <v>2858</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="7">
-        <v>543.5</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="16">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="C76" s="4">
-        <v>95</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16">
       <c r="A77" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C77" s="7">
-        <v>577.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="24">
+        <v>4289.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C78" s="4">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>275.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16">
       <c r="A79" s="5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C79" s="7">
-        <v>77</v>
+        <v>1404.5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C80" s="4">
-        <v>628</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="16">
       <c r="A81" s="5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C81" s="7">
-        <v>435.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="C82" s="4">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16">
       <c r="A83" s="5" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="C83" s="7">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="16">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C84" s="4">
-        <v>1303.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="16">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C85" s="7">
-        <v>213.5</v>
+        <v>543.5</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C86" s="4">
-        <v>932</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="16">
       <c r="A87" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C87" s="7">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>577.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="C88" s="4">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="16">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C89" s="7">
-        <v>248</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="C90" s="4">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16">
       <c r="A91" s="5" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="C91" s="7">
-        <v>1339</v>
+        <v>435.5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="C92" s="4">
-        <v>504</v>
+        <v>764</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="C93" s="7">
-        <v>377</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="16">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C94" s="4">
-        <v>495.5</v>
+        <v>1303.5</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="16">
       <c r="A95" s="5" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C95" s="7">
-        <v>3139.5</v>
+        <v>213.5</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="16">
       <c r="A96" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C96" s="4">
-        <v>2584</v>
+        <v>932</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="16">
-      <c r="A97" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C97" s="4">
-        <v>384.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="16">
-      <c r="A98" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C98" s="7">
-        <v>1001.5</v>
+      <c r="A97" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="7">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="4">
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="16">
-      <c r="A99" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C99" s="4">
-        <v>661.5</v>
+      <c r="A99" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="7">
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C100" s="4">
-        <v>286.5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="16">
-      <c r="A101" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="C101" s="7">
-        <v>1182.5</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C102" s="4">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="16">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="5" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="C103" s="7">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16">
       <c r="A104" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C104" s="4">
-        <v>507.5</v>
+        <v>495.5</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="16">
       <c r="A105" s="5" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C105" s="7">
-        <v>616.5</v>
+        <v>3139.5</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="16">
       <c r="A106" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C106" s="4">
-        <v>2096.5</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="16">
       <c r="A107" s="5" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="C107" s="7">
-        <v>1555</v>
+        <v>333</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="16">
       <c r="A108" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="C108" s="4">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>384.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="16">
       <c r="A109" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C109" s="7">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>1001.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="16">
       <c r="A110" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C110" s="4">
-        <v>71.5</v>
+        <v>661.5</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="16">
       <c r="A111" s="5" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="C111" s="7">
-        <v>837</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="C112" s="4">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>286.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="16">
       <c r="A113" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C113" s="7">
-        <v>1207</v>
+        <v>1182.5</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C114" s="4">
-        <v>239.5</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="16">
       <c r="A115" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C115" s="7">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="16">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="24">
       <c r="A116" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C116" s="4">
-        <v>156</v>
+        <v>507.5</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="16">
       <c r="A117" s="5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C117" s="7">
-        <v>1234.5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>616.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="16">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C118" s="4">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>2096.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="16">
       <c r="A119" s="5" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C119" s="7">
-        <v>736.5</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="16">
       <c r="A120" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="C120" s="4">
-        <v>758.5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="16">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C121" s="7">
-        <v>589.5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="16">
-      <c r="A122" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C122" s="4">
-        <v>376.5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C122" s="7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="16">
       <c r="A123" s="5" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C123" s="7">
-        <v>546</v>
+        <v>837</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C124" s="4">
-        <v>638.5</v>
+        <v>464</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="5" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>104</v>
       </c>
       <c r="C125" s="7">
-        <v>347.5</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C126" s="4">
+        <v>239.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="16">
+      <c r="A127" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="7">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="16">
+      <c r="A128" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C128" s="4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="16">
+      <c r="A129" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" s="7">
+        <v>1234.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" s="4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="7">
+        <v>736.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="16">
+      <c r="A132" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="4">
+        <v>758.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="16">
+      <c r="A133" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" s="7">
+        <v>589.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="16">
+      <c r="A134" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" s="4">
+        <v>376.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C135" s="7">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C136" s="4">
+        <v>638.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C137" s="7">
+        <v>347.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C138" s="4">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C126" s="4">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127" s="7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B128" s="3" t="s">
+      <c r="B139" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C139" s="4">
         <v>787</v>
       </c>
     </row>
